--- a/biology/Zoologie/Brachythemis/Brachythemis.xlsx
+++ b/biology/Zoologie/Brachythemis/Brachythemis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Brachythemis est un genre de libellules de la famille des libellulidés comprenant six espèces. Leur nom vernaculaire anglais est Groundlings.
 </t>
@@ -511,15 +523,17 @@
           <t>Liste des espèces[1]</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Brachythemis contaminata (Fabricius, 1793)[2]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Brachythemis contaminata (Fabricius, 1793)
 Brachythemis fuscopalliata (Selys, 1887)
 Brachythemis impartita (Karsch, 1890)
 Brachythemis lacustris (Kirby, 1889)
 Brachythemis leucosticta (Burmeister, 1839), seule européenne (sud)
 Brachythemis wilsoni Pinhey, 1952
-Cette liste est aussi reprise par BioLib                    (4 février 2014)[3].
+Cette liste est aussi reprise par BioLib                    (4 février 2014).
 </t>
         </is>
       </c>
@@ -548,9 +562,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (9 janvier 2022)[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (9 janvier 2022) :
 Brachythemis contaminata
 Brachythemis impartita
 Brachythemis leucosticta</t>
@@ -581,7 +597,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Brauer, F. 1868. Verzeichnis der bis jetzt bekannten Neuropteren im Sinne Linné's. Verhandlungen der Kaiserlich-Königlichen Zoologisch-botanische Gesellschaft in Wien, 18: 359-413. (BHL - Brachythemis p.367)</t>
         </is>
